--- a/Writing/Notes and files/Gantt Chart.xlsx
+++ b/Writing/Notes and files/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Final Year Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruyak\Documents\University\Third Year\Final-Year-Project\Ruya Kumru-Holroyd\Ruya Kumru-Holroyd\Writing\Notes and files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058CD27-4546-42D0-BC1C-6139271C486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315767E-6576-42E3-AED4-511A17E7EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92CDDC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +413,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,16 +1060,16 @@
       <c r="C5" s="31"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
@@ -1163,12 +1172,12 @@
       <c r="E7" s="29"/>
       <c r="F7" s="31"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -1543,12 +1552,12 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -1622,7 +1631,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -1701,16 +1710,16 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
@@ -1784,9 +1793,9 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
@@ -1853,7 +1862,7 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="27" t="s">
         <v>3</v>
@@ -1865,9 +1874,9 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
@@ -1958,11 +1967,11 @@
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -2064,9 +2073,9 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="36"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
@@ -2167,10 +2176,10 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
@@ -2272,9 +2281,9 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
@@ -2376,9 +2385,9 @@
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
@@ -2794,7 +2803,7 @@
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
+      <c r="O41" s="31"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>

--- a/Writing/Notes and files/Gantt Chart.xlsx
+++ b/Writing/Notes and files/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruyak\Documents\University\Third Year\Final-Year-Project\Ruya Kumru-Holroyd\Ruya Kumru-Holroyd\Writing\Notes and files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315767E-6576-42E3-AED4-511A17E7EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F3B984-C2E9-4F5F-AE80-786664E227F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -318,11 +318,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,7 +364,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -364,9 +374,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -381,6 +388,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,8 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +778,7 @@
   <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +789,7 @@
     <col min="8" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.28515625" customWidth="1"/>
     <col min="24" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" customWidth="1"/>
     <col min="30" max="41" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6.140625" customWidth="1"/>
     <col min="43" max="45" width="6.28515625" customWidth="1"/>
@@ -862,12 +876,12 @@
       </c>
       <c r="Z2" s="39"/>
       <c r="AA2" s="39"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="20" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="12"/>
@@ -894,7 +908,7 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>44501</v>
       </c>
       <c r="D3" s="19">
@@ -906,77 +920,81 @@
       <c r="F3" s="18">
         <v>44522</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>44529</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>44536</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>44543</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>44550</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>44557</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>44564</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <v>44571</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <v>44578</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <v>44585</v>
       </c>
       <c r="P3" s="10">
         <v>44592</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="23">
         <v>44599</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <v>44606</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <v>44613</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <v>44620</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="23">
         <v>44627</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="22">
         <v>44634</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="22">
         <v>44641</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="22">
         <v>44648</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="23">
         <v>44655</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="22">
         <v>44662</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="22">
         <v>44669</v>
       </c>
       <c r="AB3" s="10">
         <v>44676</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="51">
         <v>44683</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
+      <c r="AD3" s="50">
+        <v>44690</v>
+      </c>
+      <c r="AE3" s="50">
+        <v>44697</v>
+      </c>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -997,41 +1015,41 @@
       <c r="AW3" s="8"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
@@ -1053,39 +1071,39 @@
       <c r="AX4" s="8"/>
     </row>
     <row r="5" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
       <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
@@ -1107,41 +1125,41 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
@@ -1163,39 +1181,39 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -1217,41 +1235,41 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1273,39 +1291,39 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1327,41 +1345,41 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
@@ -1383,560 +1401,560 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
     </row>
     <row r="14" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
     <row r="17" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
     </row>
     <row r="19" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
     </row>
     <row r="20" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
     </row>
     <row r="21" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -1955,39 +1973,39 @@
       <c r="AU24" s="4"/>
     </row>
     <row r="25" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
@@ -2006,41 +2024,41 @@
       <c r="AU25" s="4"/>
     </row>
     <row r="26" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
@@ -2059,39 +2077,39 @@
       <c r="AU26" s="4"/>
     </row>
     <row r="27" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
@@ -2110,41 +2128,41 @@
       <c r="AU27" s="4"/>
     </row>
     <row r="28" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
@@ -2163,39 +2181,39 @@
       <c r="AU28" s="4"/>
     </row>
     <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="33"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="52"/>
       <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
       <c r="AC29" s="29"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
@@ -2214,41 +2232,41 @@
       <c r="AU29" s="4"/>
     </row>
     <row r="30" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
@@ -2267,23 +2285,23 @@
       <c r="AU30" s="4"/>
     </row>
     <row r="31" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
@@ -2292,14 +2310,14 @@
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
       <c r="W31" s="29"/>
-      <c r="X31" s="33"/>
+      <c r="X31" s="52"/>
       <c r="Y31" s="29"/>
       <c r="Z31" s="29"/>
       <c r="AA31" s="29"/>
       <c r="AB31" s="29"/>
       <c r="AC31" s="29"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
@@ -2318,41 +2336,41 @@
       <c r="AU31" s="4"/>
     </row>
     <row r="32" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
@@ -2371,39 +2389,39 @@
       <c r="AU32" s="4"/>
     </row>
     <row r="33" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
@@ -2422,41 +2440,41 @@
       <c r="AU33" s="4"/>
     </row>
     <row r="34" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
@@ -2475,39 +2493,39 @@
       <c r="AU34" s="4"/>
     </row>
     <row r="35" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="29"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
@@ -2526,41 +2544,41 @@
       <c r="AU35" s="4"/>
     </row>
     <row r="36" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
@@ -2579,39 +2597,39 @@
       <c r="AU36" s="4"/>
     </row>
     <row r="37" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="29"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
@@ -2630,41 +2648,41 @@
       <c r="AU37" s="4"/>
     </row>
     <row r="38" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
@@ -2683,39 +2701,39 @@
       <c r="AU38" s="4"/>
     </row>
     <row r="39" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="29"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
@@ -2734,41 +2752,41 @@
       <c r="AU39" s="4"/>
     </row>
     <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
@@ -2787,39 +2805,39 @@
       <c r="AU40" s="4"/>
     </row>
     <row r="41" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="27" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
@@ -2838,41 +2856,41 @@
       <c r="AU41" s="4"/>
     </row>
     <row r="42" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
@@ -2891,39 +2909,39 @@
       <c r="AU42" s="4"/>
     </row>
     <row r="43" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="29"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="29"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
@@ -2942,41 +2960,41 @@
       <c r="AU43" s="4"/>
     </row>
     <row r="44" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
@@ -2995,39 +3013,39 @@
       <c r="AU44" s="4"/>
     </row>
     <row r="45" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="29"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
@@ -3046,41 +3064,41 @@
       <c r="AU45" s="4"/>
     </row>
     <row r="46" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
@@ -3099,39 +3117,39 @@
       <c r="AU46" s="4"/>
     </row>
     <row r="47" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="29"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
@@ -3782,7 +3800,8 @@
       <c r="B115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="Q2:T2"/>
